--- a/Record.xlsx
+++ b/Record.xlsx
@@ -16,17 +16,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>Grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute Wrangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeightField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeightField Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object Merge</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Attribute Randomize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy to Points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROP Geometry Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeightField Blur</t>
+  </si>
+  <si>
+    <t>HeightField Distort by Noise</t>
+  </si>
+  <si>
+    <t>HeightField Mask by Feature</t>
+  </si>
+  <si>
+    <t>HeightField Slump</t>
+  </si>
+  <si>
+    <t>HeightField Layer Clear</t>
+  </si>
+  <si>
+    <t>HeightField Erode</t>
+  </si>
+  <si>
+    <t>TimeShift</t>
+  </si>
+  <si>
+    <t>Volume Wrangle</t>
+  </si>
+  <si>
+    <t>HeightField Copy Layer</t>
+  </si>
+  <si>
+    <t>Convert HeightField</t>
+  </si>
+  <si>
+    <t>HeightField Tile Split</t>
+  </si>
+  <si>
+    <t>HeightField Noise</t>
+  </si>
+  <si>
+    <t>HeightField Scatter</t>
+  </si>
+  <si>
+    <t>Table Import</t>
+  </si>
+  <si>
+    <t>Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Pattern</t>
+  </si>
+  <si>
+    <t>HDA Processor</t>
+  </si>
+  <si>
+    <t>Wedge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait for All</t>
+  </si>
+  <si>
+    <t>CSV Output</t>
+  </si>
+  <si>
+    <t>Partition by Index</t>
+  </si>
+  <si>
+    <t>HeightField File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poly Extrude</t>
+  </si>
+  <si>
+    <t>Group Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro_To_GDG</t>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brickify</t>
+  </si>
+  <si>
+    <t>Match Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points from Volume</t>
+  </si>
+  <si>
+    <t>Attribute VOP</t>
+  </si>
+  <si>
+    <t>Attribute Promote</t>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute Transfer</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group by Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildACityWithPDG</t>
+  </si>
+  <si>
+    <t>Trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometry Import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROG Geometry Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition by Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROP Mantra Render</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROG Composite Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Magick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Platonic Solids</t>
+  </si>
+  <si>
+    <t>Subdivide</t>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +312,33 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -70,12 +365,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -379,641 +680,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="40.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44991</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44992</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44993</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44994</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44995</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>45003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>45004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>45005</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45006</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>45007</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>45008</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>45009</v>
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>45010</v>
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>45011</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>45012</v>
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>45013</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>45014</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>45015</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>45016</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>45017</v>
+      <c r="A28" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>45018</v>
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>45019</v>
+      <c r="A30" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>45020</v>
+      <c r="A31" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>45021</v>
+      <c r="A32" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>45022</v>
+      <c r="A33" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>45023</v>
+      <c r="A34" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>45024</v>
+      <c r="A35" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>45025</v>
+      <c r="A36" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>45026</v>
+      <c r="A37" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>45027</v>
+      <c r="A38" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>45028</v>
+      <c r="A39" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>45029</v>
+      <c r="A40" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>45030</v>
+      <c r="A41" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>45031</v>
+      <c r="A42" s="1">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>45032</v>
+      <c r="A43" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>45033</v>
+      <c r="A44" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>45034</v>
+      <c r="A45" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45035</v>
+      <c r="A46" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>45036</v>
+      <c r="A47" s="1">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>45037</v>
+      <c r="A48" s="1">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>45038</v>
+      <c r="A49" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>45039</v>
+      <c r="A50" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>45040</v>
+      <c r="A51" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>45041</v>
+      <c r="A52" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>45042</v>
+      <c r="A53" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>45043</v>
+      <c r="A54" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>45044</v>
+      <c r="A55" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>45045</v>
+      <c r="A56" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>45046</v>
+      <c r="A57" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>45047</v>
+      <c r="A58" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>45048</v>
+      <c r="A59" s="1">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>45049</v>
+      <c r="A60" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>45050</v>
+      <c r="A61" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>45051</v>
+      <c r="A62" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>45052</v>
+      <c r="A63" s="1">
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>45053</v>
+      <c r="A64" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>45054</v>
+      <c r="A65" s="1">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>45055</v>
+      <c r="A66" s="1">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>45056</v>
+      <c r="A67" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>45057</v>
+      <c r="A68" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>45058</v>
+      <c r="A69" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>45059</v>
+      <c r="A70" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>45060</v>
+      <c r="A71" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>45061</v>
+      <c r="A72" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>45062</v>
+      <c r="A73" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>45063</v>
+      <c r="A74" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>45064</v>
+      <c r="A75" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>45065</v>
+      <c r="A76" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>45066</v>
+      <c r="A77" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>45067</v>
+      <c r="A78" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>45068</v>
+      <c r="A79" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>45069</v>
+      <c r="A80" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>45070</v>
+      <c r="A81" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>45071</v>
+      <c r="A82" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>45072</v>
+      <c r="A83" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>45073</v>
+      <c r="A84" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>45074</v>
+      <c r="A85" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>45075</v>
+      <c r="A86" s="1">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>45076</v>
+      <c r="A87" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>45077</v>
+      <c r="A88" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>45078</v>
+      <c r="A89" s="1">
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>45079</v>
+      <c r="A90" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>45080</v>
+      <c r="A91" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>45081</v>
+      <c r="A92" s="1">
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>45082</v>
+      <c r="A93" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>45083</v>
+      <c r="A94" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>45084</v>
+      <c r="A95" s="1">
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>45085</v>
+      <c r="A96" s="1">
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>45086</v>
+      <c r="A97" s="1">
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>45087</v>
+      <c r="A98" s="1">
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>45088</v>
+      <c r="A99" s="1">
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>45089</v>
+      <c r="A100" s="1">
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>45090</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>45092</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>45093</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>45094</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>45098</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>45099</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>45101</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>45102</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>45103</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>45104</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>45105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>45107</v>
+      <c r="A101" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -12,45 +12,282 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeightField</t>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeightField Noise</t>
+  </si>
+  <si>
+    <t>HeightField Blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeightField Distort by Noise</t>
+  </si>
+  <si>
+    <t>HeightField Remap</t>
+  </si>
+  <si>
+    <t>HeightField Erode</t>
+  </si>
+  <si>
+    <t>HeightField Mask by Feature</t>
+  </si>
+  <si>
+    <t>HeightField Slump</t>
+  </si>
+  <si>
+    <t>HeightField Layer Clear</t>
+  </si>
+  <si>
+    <t>HeightField Copy Layer</t>
+  </si>
+  <si>
+    <t>HeightField Visualize</t>
+  </si>
+  <si>
+    <t>HeightField Scatter</t>
+  </si>
+  <si>
+    <t>Tube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy to Points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolyExtrude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolyBevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Match Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points from Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atribute VOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute Promote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute Transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brickify</t>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group by Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoccerBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platonic Solids</t>
+  </si>
+  <si>
+    <t>Attribute Create</t>
+  </si>
+  <si>
+    <t>Subdivide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Begin</t>
+  </si>
+  <si>
+    <t>Block End</t>
+  </si>
+  <si>
+    <t>UV Quick Shade</t>
+  </si>
+  <si>
+    <t>UV Flatten</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WineGlass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolve</t>
+  </si>
+  <si>
+    <t>Crease</t>
+  </si>
   <si>
     <t>Grid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attribute Create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute Wrangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeightField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeightField Project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit</t>
+    <t>Draw Curve</t>
+  </si>
+  <si>
+    <t>Copy and Transform</t>
+  </si>
+  <si>
+    <t>Attribute Noise</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Exploded View</t>
+  </si>
+  <si>
+    <t>BilibiliA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROP Geometry Output</t>
+  </si>
+  <si>
+    <t>File Cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV Project</t>
+  </si>
+  <si>
+    <t>Alembic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,244 +295,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Object Merge</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Attribute Randomize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copy to Points</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROP Geometry Output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeightField Blur</t>
-  </si>
-  <si>
-    <t>HeightField Distort by Noise</t>
-  </si>
-  <si>
-    <t>HeightField Mask by Feature</t>
-  </si>
-  <si>
-    <t>HeightField Slump</t>
-  </si>
-  <si>
-    <t>HeightField Layer Clear</t>
-  </si>
-  <si>
-    <t>HeightField Erode</t>
-  </si>
-  <si>
-    <t>TimeShift</t>
-  </si>
-  <si>
-    <t>Volume Wrangle</t>
-  </si>
-  <si>
-    <t>HeightField Copy Layer</t>
-  </si>
-  <si>
-    <t>Convert HeightField</t>
-  </si>
-  <si>
-    <t>HeightField Tile Split</t>
-  </si>
-  <si>
-    <t>HeightField Noise</t>
-  </si>
-  <si>
-    <t>HeightField Scatter</t>
-  </si>
-  <si>
-    <t>Table Import</t>
-  </si>
-  <si>
-    <t>Blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File Pattern</t>
-  </si>
-  <si>
-    <t>HDA Processor</t>
-  </si>
-  <si>
-    <t>Wedge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wait for All</t>
-  </si>
-  <si>
-    <t>CSV Output</t>
-  </si>
-  <si>
-    <t>Partition by Index</t>
-  </si>
-  <si>
-    <t>HeightField File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poly Extrude</t>
-  </si>
-  <si>
-    <t>Group Create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intro_To_GDG</t>
-  </si>
-  <si>
-    <t>Project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brickify</t>
-  </si>
-  <si>
-    <t>Match Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Points from Volume</t>
-  </si>
-  <si>
-    <t>Attribute VOP</t>
-  </si>
-  <si>
-    <t>Attribute Promote</t>
-  </si>
-  <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute Transfer</t>
-  </si>
-  <si>
-    <t>Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group by Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildACityWithPDG</t>
-  </si>
-  <si>
-    <t>Trace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geometry Import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROG Geometry Output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition by Attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROP Mantra Render</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROG Composite Output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Magick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local Scheduler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soccer</t>
-  </si>
-  <si>
-    <t>Platonic Solids</t>
-  </si>
-  <si>
-    <t>Subdivide</t>
-  </si>
-  <si>
-    <t>Sphere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block Begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connectivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolyReduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOP Network</t>
+  </si>
+  <si>
+    <t>Point Relax</t>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trail</t>
+  </si>
+  <si>
+    <t>FileCache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchIf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five Minutes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute Paint</t>
+  </si>
+  <si>
+    <t>Attribute Delete</t>
+  </si>
+  <si>
+    <t>Alembic ROP output driver</t>
   </si>
 </sst>
 </file>
@@ -338,7 +389,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -680,497 +731,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
     <col min="2" max="7" width="40.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
